--- a/automator-projects/unitWords/data/Wildcard Database.xlsx
+++ b/automator-projects/unitWords/data/Wildcard Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAL9000\Desktop\kod\Automator\Automator 2.0\projects\unitWords\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96D0BE-C992-4B30-83ED-FCF715CF2FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C99E97-254A-44F2-8E2C-E5C8BE667C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5784" yWindow="564" windowWidth="14916" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,42 +20,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>understanding</t>
-  </si>
-  <si>
-    <t>loyal</t>
-  </si>
-  <si>
-    <t>caring</t>
-  </si>
-  <si>
-    <t>accept</t>
-  </si>
-  <si>
-    <t>refuse</t>
-  </si>
-  <si>
-    <t>invite</t>
-  </si>
-  <si>
-    <t>invitation</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>guest</t>
-  </si>
-  <si>
-    <t>snowy</t>
-  </si>
-  <si>
-    <t>filler</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+  <si>
+    <t>abandon</t>
+  </si>
+  <si>
+    <t>abroad</t>
+  </si>
+  <si>
+    <t>advertisement</t>
+  </si>
+  <si>
+    <t>all-inclusive</t>
+  </si>
+  <si>
+    <t>amphitheater</t>
+  </si>
+  <si>
+    <t>ancient</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>attractive</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>brochure</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>citizen</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>conquer</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>cruise</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>discover</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>diversity</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>emperor</t>
+  </si>
+  <si>
+    <t>empire</t>
+  </si>
+  <si>
+    <t>equality</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>guesthouse</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>handcraft</t>
+  </si>
+  <si>
+    <t>heritage</t>
+  </si>
+  <si>
+    <t>historic site</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>in my opinion</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>invasion</t>
+  </si>
+  <si>
+    <t>joke</t>
+  </si>
+  <si>
+    <t>justice</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>weigh</t>
+  </si>
+  <si>
+    <t>magnificent</t>
+  </si>
+  <si>
+    <t>mercifulness</t>
+  </si>
+  <si>
+    <t>mosque</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>palace</t>
+  </si>
+  <si>
+    <t>plane</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>reception</t>
+  </si>
+  <si>
+    <t>religious</t>
+  </si>
+  <si>
+    <t>remarkable</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>seaside</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>sightseeing</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>souvenir</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>spectator</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>temple</t>
+  </si>
+  <si>
+    <t>tourist attraction</t>
+  </si>
+  <si>
+    <t>trade route</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>vacation</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>visitor</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>summer</t>
   </si>
 </sst>
 </file>
@@ -91,13 +307,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -395,78 +652,580 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B12"/>
+  <dimension ref="B1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="2"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B111:B124">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B104 B106:B110">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>